--- a/Cost/Mapfre/HEXACOPTER.xlsx
+++ b/Cost/Mapfre/HEXACOPTER.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>ELEMENT</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>JM&amp;HS</t>
+  </si>
+  <si>
+    <t>JS</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="D8:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +562,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
@@ -567,7 +570,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>

--- a/Cost/Mapfre/HEXACOPTER.xlsx
+++ b/Cost/Mapfre/HEXACOPTER.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>ELEMENT</t>
   </si>
@@ -100,16 +100,30 @@
   </si>
   <si>
     <t>JS</t>
+  </si>
+  <si>
+    <t>http://www.uavproducts.com/index.php?id_product=56&amp;controller=product</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,16 +146,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,21 +458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:I28"/>
+  <dimension ref="D8:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="39.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="71.7109375" customWidth="1"/>
+    <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,18 +488,37 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>318</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f>F10*G10</f>
+        <v>318</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -488,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -496,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>19</v>
       </c>
@@ -504,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -512,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -520,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>19</v>
       </c>

--- a/Cost/Mapfre/HEXACOPTER.xlsx
+++ b/Cost/Mapfre/HEXACOPTER.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>ELEMENT</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Servo Wire</t>
   </si>
   <si>
-    <t>Trigger Wire</t>
-  </si>
-  <si>
     <t>Controller (8 channels)</t>
   </si>
   <si>
@@ -106,6 +103,66 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Spektrum-DX8-Transmitter-Only-MD2/dp/B00I82EK4E/ref=sr_1_1?s=toys-and-games&amp;ie=UTF8&amp;qid=1427572265&amp;sr=1-1&amp;keywords=DX8+Transmitter</t>
+  </si>
+  <si>
+    <t>Radio+telem+Cajita</t>
+  </si>
+  <si>
+    <t>APM 2.6</t>
+  </si>
+  <si>
+    <t>Cheap ass but gewd</t>
+  </si>
+  <si>
+    <t>http://www.goodluckbuy.com/915mhz-radio-telemetry-air--ground-module-kit-3dr-radio-system-compatible.html</t>
+  </si>
+  <si>
+    <t>http://www.getfpv.com/3dr-apm-2-6-with-gps.html?utm_source=google_shopping&amp;gclid=CjwKEAjwotmoBRCc6LWd2ZnkuBYSJACyt2qufivd9sDIKU5gQ0nFH7sbr1MY797jY7Dk_IR7uND7ghoCAu_w_wcB</t>
+  </si>
+  <si>
+    <t>Camera S100</t>
+  </si>
+  <si>
+    <t>Camera S100 + Glass Filter</t>
+  </si>
+  <si>
+    <t>No better battery</t>
+  </si>
+  <si>
+    <t>http://www.maxamps.com/Lipo-11000-148-Pack.htm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Canon-PowerShot-S100-Wide-Angle-Stabilized/dp/B005MTME3U</t>
+  </si>
+  <si>
+    <t>http://www.event38.com/ProductDetails.asp?ProductCode=NGB</t>
+  </si>
+  <si>
+    <t>Flotators</t>
+  </si>
+  <si>
+    <t>http://www.hobbyking.com/hobbyking/store/__67134__10CM_Male_to_Male_Servo_Lead_JR_26AWG_10pcs_set_AR_Warehouse_.html</t>
+  </si>
+  <si>
+    <t>Glass Filters</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Transcend-Speed-Class-Memory-TS32GSDHC10U1E/dp/B008CVHLT2/ref=sr_1_2?ie=UTF8&amp;qid=1427581594&amp;sr=8-2&amp;keywords=32gb+high+speed+sd+card</t>
+  </si>
+  <si>
+    <t>20 Pieces</t>
+  </si>
+  <si>
+    <t>Pool Noodles Yay</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/POOL-NOODLE-RED-NOODLES-HOLE/dp/B003JO9QTU</t>
   </si>
 </sst>
 </file>
@@ -460,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,8 +526,8 @@
     <col min="5" max="5" width="39.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="71.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="83.85546875" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
@@ -515,7 +572,7 @@
         <v>318</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
@@ -525,6 +582,22 @@
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F11" s="1">
+        <v>160</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H28" si="0">F11*G11</f>
+        <v>160</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
@@ -533,6 +606,22 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="1">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -541,6 +630,22 @@
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F13" s="1">
+        <v>300</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -549,6 +654,22 @@
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F14" s="1">
+        <v>26.23</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>26.23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -557,113 +678,254 @@
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1">
+        <v>346.93</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>346.93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>240</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>60</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>16.489999999999998</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="F28" s="1">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J16" r:id="rId1"/>
+    <hyperlink ref="J14" r:id="rId2"/>
+    <hyperlink ref="J18" r:id="rId3"/>
+    <hyperlink ref="J13" r:id="rId4"/>
+    <hyperlink ref="J11" r:id="rId5"/>
+    <hyperlink ref="J25" r:id="rId6"/>
+    <hyperlink ref="J12" r:id="rId7"/>
+    <hyperlink ref="J26" r:id="rId8"/>
+    <hyperlink ref="J27" r:id="rId9"/>
+    <hyperlink ref="J28" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Cost/Mapfre/HEXACOPTER.xlsx
+++ b/Cost/Mapfre/HEXACOPTER.xlsx
@@ -138,9 +138,6 @@
     <t>http://www.amazon.com/Canon-PowerShot-S100-Wide-Angle-Stabilized/dp/B005MTME3U</t>
   </si>
   <si>
-    <t>http://www.event38.com/ProductDetails.asp?ProductCode=NGB</t>
-  </si>
-  <si>
     <t>Flotators</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>http://www.amazon.com/POOL-NOODLE-RED-NOODLES-HOLE/dp/B003JO9QTU</t>
+  </si>
+  <si>
+    <t>https://www.event38.com/ProductDetails.asp?ProductCode=NGB2</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="D8:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,10 +833,10 @@
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
@@ -857,10 +857,10 @@
         <v>16.489999999999998</v>
       </c>
       <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
@@ -881,10 +881,10 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1">
         <v>12</v>
@@ -905,10 +905,10 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -918,14 +918,13 @@
     <hyperlink ref="J18" r:id="rId3"/>
     <hyperlink ref="J13" r:id="rId4"/>
     <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J25" r:id="rId6"/>
-    <hyperlink ref="J12" r:id="rId7"/>
-    <hyperlink ref="J26" r:id="rId8"/>
-    <hyperlink ref="J27" r:id="rId9"/>
-    <hyperlink ref="J28" r:id="rId10"/>
+    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J26" r:id="rId7"/>
+    <hyperlink ref="J27" r:id="rId8"/>
+    <hyperlink ref="J28" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Cost/Mapfre/HEXACOPTER.xlsx
+++ b/Cost/Mapfre/HEXACOPTER.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ELEMENT</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Frame</t>
   </si>
   <si>
-    <t>Camera HD</t>
-  </si>
-  <si>
-    <t>Camera NDVI</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>Landing Gear</t>
   </si>
   <si>
-    <t>Prop Guards</t>
-  </si>
-  <si>
     <t>Portable Power</t>
   </si>
   <si>
@@ -66,18 +57,12 @@
     <t>Mounting for both Gimbals</t>
   </si>
   <si>
-    <t>JM</t>
-  </si>
-  <si>
     <t>Filtros</t>
   </si>
   <si>
     <t>Extra Propeller</t>
   </si>
   <si>
-    <t>HS</t>
-  </si>
-  <si>
     <t>SD Card</t>
   </si>
   <si>
@@ -87,18 +72,9 @@
     <t>Servo Wire</t>
   </si>
   <si>
-    <t>Controller (8 channels)</t>
-  </si>
-  <si>
     <t>Battery Charger (3 at a time)</t>
   </si>
   <si>
-    <t>JM&amp;HS</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
     <t>http://www.uavproducts.com/index.php?id_product=56&amp;controller=product</t>
   </si>
   <si>
@@ -126,9 +102,6 @@
     <t>Camera S100</t>
   </si>
   <si>
-    <t>Camera S100 + Glass Filter</t>
-  </si>
-  <si>
     <t>No better battery</t>
   </si>
   <si>
@@ -163,6 +136,36 @@
   </si>
   <si>
     <t>https://www.event38.com/ProductDetails.asp?ProductCode=NGB2</t>
+  </si>
+  <si>
+    <t>http://www.hobbyking.com/hobbyking/store/__57130__General_Use_2_Axis_Servo_Gimbal_FC_T8_US_Warehouse_.html</t>
+  </si>
+  <si>
+    <t>Servo 9g</t>
+  </si>
+  <si>
+    <t>Servo 54g</t>
+  </si>
+  <si>
+    <t>http://www.hobbyking.com/hobbyking/store/__24575__turnigy_tgy_5513md_metal_gear_digital_servo_12kg_0_18sec_54_5g.html</t>
+  </si>
+  <si>
+    <t>http://www.hobbyking.com/hobbyking/store/__37825__Turnigy_TGY_50090M_Metal_Gear_9g_Analog_Servo_US_Warehouse_.html?strSearch=servo%209g%20metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller </t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Hobbypower-Universal-Landing-Multirotor-Quadcopter/dp/B00IUGQFLO/ref=sr_1_1?ie=UTF8&amp;qid=1427589153&amp;sr=8-1&amp;keywords=f550+landing+gear</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Best_Express-Replacement-Locking-Carbon-Phantom/dp/B00QM01WKE/ref=sr_1_11?ie=UTF8&amp;qid=1427589939&amp;sr=8-11&amp;keywords=9443+props</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Vibration-Universal-Landing-Quadcopter-HexaCopter/dp/B00T9H26UW/ref=sr_1_12?ie=UTF8&amp;qid=1427590138&amp;sr=8-12&amp;keywords=f550+landing+gear</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:J28"/>
+  <dimension ref="E8:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,11 +530,11 @@
     <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="83.85546875" customWidth="1"/>
+    <col min="10" max="10" width="180.85546875" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,25 +542,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
@@ -572,255 +572,258 @@
         <v>318</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1">
         <v>160</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ref="H11:H28" si="0">F11*G11</f>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>300</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
-        <v>160</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F13" s="1">
-        <v>300</v>
+        <v>26.23</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>26.23</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>19.98</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1">
+        <v>346.93</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>346.93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="1">
-        <v>26.23</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
+        <v>240</v>
+      </c>
+      <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>26.23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>39.99</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>79.98</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
+        <v>160</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1">
-        <v>346.93</v>
-      </c>
-      <c r="G16" s="1">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>346.93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1">
-        <v>240</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>15.58</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F25" s="1">
         <v>60</v>
@@ -833,18 +836,15 @@
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1">
         <v>16.489999999999998</v>
@@ -857,18 +857,15 @@
         <v>16.489999999999998</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1">
         <v>4.9400000000000004</v>
@@ -881,18 +878,15 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1">
         <v>12</v>
@@ -905,26 +899,37 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <f xml:space="preserve"> SUM(H10:H28)</f>
+        <v>2596.9699999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J16" r:id="rId1"/>
-    <hyperlink ref="J14" r:id="rId2"/>
-    <hyperlink ref="J18" r:id="rId3"/>
-    <hyperlink ref="J13" r:id="rId4"/>
+    <hyperlink ref="J17" r:id="rId1"/>
+    <hyperlink ref="J13" r:id="rId2"/>
+    <hyperlink ref="J19" r:id="rId3"/>
+    <hyperlink ref="J12" r:id="rId4"/>
     <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J12" r:id="rId6"/>
-    <hyperlink ref="J26" r:id="rId7"/>
-    <hyperlink ref="J27" r:id="rId8"/>
-    <hyperlink ref="J28" r:id="rId9"/>
+    <hyperlink ref="J26" r:id="rId6"/>
+    <hyperlink ref="J27" r:id="rId7"/>
+    <hyperlink ref="J28" r:id="rId8"/>
+    <hyperlink ref="J14" r:id="rId9"/>
+    <hyperlink ref="J15" r:id="rId10"/>
+    <hyperlink ref="J18" r:id="rId11"/>
+    <hyperlink ref="J10" r:id="rId12"/>
+    <hyperlink ref="J20" r:id="rId13"/>
+    <hyperlink ref="J24" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Cost/Mapfre/HEXACOPTER.xlsx
+++ b/Cost/Mapfre/HEXACOPTER.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>ELEMENT</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Landing Gear</t>
   </si>
   <si>
-    <t>Portable Power</t>
-  </si>
-  <si>
     <t>Case</t>
   </si>
   <si>
@@ -166,12 +163,64 @@
   </si>
   <si>
     <t>http://www.amazon.com/Vibration-Universal-Landing-Quadcopter-HexaCopter/dp/B00T9H26UW/ref=sr_1_12?ie=UTF8&amp;qid=1427590138&amp;sr=8-12&amp;keywords=f550+landing+gear</t>
+  </si>
+  <si>
+    <t>Tunirgy 400WX2</t>
+  </si>
+  <si>
+    <t>http://www.hobbyking.com/hobbyking/store/__41183__Turnigy_MEGA_400Wx2_Battery_Charger_Discharger_800W_US_Warehouse_.html?strSearch=400wx2</t>
+  </si>
+  <si>
+    <t>CHARGING</t>
+  </si>
+  <si>
+    <t>Alternative 1</t>
+  </si>
+  <si>
+    <t>Alternative 2</t>
+  </si>
+  <si>
+    <t>Alternative 3</t>
+  </si>
+  <si>
+    <t>Alternative 4</t>
+  </si>
+  <si>
+    <t>Power Supply + HONDA generator</t>
+  </si>
+  <si>
+    <t>Power Supply + SEAR generator</t>
+  </si>
+  <si>
+    <t>Battery from car itself</t>
+  </si>
+  <si>
+    <t>Battery car + charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>150 + 1000</t>
+  </si>
+  <si>
+    <t>150 + 250</t>
+  </si>
+  <si>
+    <t>100 + 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelican </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,12 +238,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,12 +265,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,14 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:J32"/>
+  <dimension ref="D8:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J8:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
@@ -548,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
@@ -572,12 +637,12 @@
         <v>318</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1">
         <v>160</v>
@@ -586,14 +651,14 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:H28" si="0">F11*G11</f>
+        <f t="shared" ref="H11:H27" si="0">F11*G11</f>
         <v>320</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
@@ -611,10 +676,10 @@
         <v>900</v>
       </c>
       <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
@@ -632,10 +697,10 @@
         <v>26.23</v>
       </c>
       <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
@@ -653,12 +718,12 @@
         <v>32.700000000000003</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>5.6</v>
@@ -671,12 +736,12 @@
         <v>11.2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1">
         <v>9.99</v>
@@ -689,12 +754,12 @@
         <v>19.98</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <v>346.93</v>
@@ -707,10 +772,10 @@
         <v>346.93</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
@@ -728,12 +793,12 @@
         <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
         <v>240</v>
@@ -746,15 +811,15 @@
         <v>240</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1">
         <v>39.99</v>
@@ -767,40 +832,64 @@
         <v>79.98</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1">
-        <v>160</v>
+        <v>17</v>
+      </c>
+      <c r="F21" s="3">
+        <v>140.29</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>140.29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F22" s="4">
+        <v>200</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F23" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.58</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
@@ -808,107 +897,144 @@
         <v>12</v>
       </c>
       <c r="F24" s="1">
-        <v>15.58</v>
+        <v>160</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>15.58</v>
+        <v>160</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1">
-        <v>60</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="I25" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1">
-        <v>16.489999999999998</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>16.489999999999998</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1">
-        <v>4.9400000000000004</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>9.8800000000000008</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
         <v>36</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="1">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="H32" s="1">
-        <f xml:space="preserve"> SUM(H10:H28)</f>
-        <v>2596.9699999999998</v>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="5">
+        <f xml:space="preserve"> SUM(H10:H27)</f>
+        <v>2893.75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -918,18 +1044,20 @@
     <hyperlink ref="J19" r:id="rId3"/>
     <hyperlink ref="J12" r:id="rId4"/>
     <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J26" r:id="rId6"/>
-    <hyperlink ref="J27" r:id="rId7"/>
-    <hyperlink ref="J28" r:id="rId8"/>
+    <hyperlink ref="J25" r:id="rId6"/>
+    <hyperlink ref="J26" r:id="rId7"/>
+    <hyperlink ref="J27" r:id="rId8"/>
     <hyperlink ref="J14" r:id="rId9"/>
     <hyperlink ref="J15" r:id="rId10"/>
     <hyperlink ref="J18" r:id="rId11"/>
     <hyperlink ref="J10" r:id="rId12"/>
     <hyperlink ref="J20" r:id="rId13"/>
-    <hyperlink ref="J24" r:id="rId14"/>
+    <hyperlink ref="J23" r:id="rId14"/>
+    <hyperlink ref="J16" r:id="rId15"/>
+    <hyperlink ref="J21" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/Cost/Mapfre/HEXACOPTER.xlsx
+++ b/Cost/Mapfre/HEXACOPTER.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J8:J37"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
